--- a/Correct.xlsx
+++ b/Correct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="797" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="463" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pk" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,19 +17,20 @@
     <sheet name="5th" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="6th" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="IDs" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Misc" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">IDs!$A$1:$D$520</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">IDs!$A$1:$D$520</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">IDs!$A$1:$D$520</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">IDs!$A$1:$D$520</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Grass Track</t>
   </si>
@@ -118,24 +119,27 @@
     <t>Total Miles</t>
   </si>
   <si>
+    <t>Etheridge</t>
+  </si>
+  <si>
+    <t>Patrick, Oyarzun T</t>
+  </si>
+  <si>
+    <t>Robert, Knott J</t>
+  </si>
+  <si>
+    <t>Class Total</t>
+  </si>
+  <si>
     <t>Radle</t>
   </si>
   <si>
-    <t>Patrick, Oyarzun T</t>
-  </si>
-  <si>
     <t>Vaishali, Patel S</t>
   </si>
   <si>
-    <t>Robert, Knott J</t>
-  </si>
-  <si>
     <t>Joseph DeHart</t>
   </si>
   <si>
-    <t>Class Total</t>
-  </si>
-  <si>
     <t>Student Id</t>
   </si>
   <si>
@@ -148,34 +152,13 @@
     <t>Grade</t>
   </si>
   <si>
+    <t>Etheridge J</t>
+  </si>
+  <si>
     <t>Radle Mark G</t>
   </si>
   <si>
     <t>Kumar Ashok</t>
-  </si>
-  <si>
-    <t>Rochelle</t>
-  </si>
-  <si>
-    <t>Clarkston, Cameron J</t>
-  </si>
-  <si>
-    <t>Dennis, Reonna M</t>
-  </si>
-  <si>
-    <t>Rodriguez, Yadriel</t>
-  </si>
-  <si>
-    <t>Snyder, Destina</t>
-  </si>
-  <si>
-    <t>tyrik</t>
-  </si>
-  <si>
-    <t>jeremiah rochon</t>
-  </si>
-  <si>
-    <t>rochelle</t>
   </si>
 </sst>
 </file>
@@ -339,7 +322,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,24 +407,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -452,15 +435,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,7 +475,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 3" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal 3" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -660,10 +635,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,64 +647,15 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1937,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1957,60 +1883,128 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="2"/>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="J2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="L3" s="23"/>
       <c r="N3" s="3"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="2"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">QUOTIENT(B4,4)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">QUOTIENT(D4,10.5)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="24" t="n">
+        <f aca="false">SUM(C4,E4)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="24"/>
       <c r="J4" s="3"/>
       <c r="L4" s="23"/>
       <c r="N4" s="18"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="2"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24"/>
       <c r="J5" s="3"/>
       <c r="L5" s="23"/>
       <c r="N5" s="3"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="2"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">SUM(B4:B5)</f>
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">QUOTIENT(B6,4)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUM(D4:D5)</f>
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">QUOTIENT(D6,10.5)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <f aca="false">SUM(C6,E6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="25"/>
       <c r="J6" s="3"/>
       <c r="L6" s="23"/>
       <c r="N6" s="3"/>
@@ -2138,40 +2132,36 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="E19" s="3"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="4"/>
       <c r="J19" s="18"/>
       <c r="L19" s="23"/>
       <c r="N19" s="18"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="2"/>
       <c r="J20" s="18"/>
       <c r="L20" s="23"/>
       <c r="N20" s="3"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="4"/>
       <c r="J21" s="18"/>
       <c r="L21" s="23"/>
       <c r="N21" s="3"/>
       <c r="P21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2192,7 +2182,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2229,10 +2219,10 @@
         <v>27</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24"/>
+      <c r="G1" s="21"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2244,31 +2234,31 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="P3" s="3"/>
@@ -2277,57 +2267,54 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">QUOTIENT(B4,4)</f>
         <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="n">
-        <f aca="false">QUOTIENT(D4,10.5)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="28" t="n">
-        <f aca="false">SUM(C4,E4)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="28"/>
+      <c r="F4" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" s="24"/>
       <c r="I4" s="3"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="3"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28" t="n">
-        <v>43</v>
-      </c>
-      <c r="G5" s="28"/>
+      <c r="F5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24"/>
       <c r="I5" s="3"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="3"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
@@ -2337,90 +2324,36 @@
         <v>32</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>14</v>
+        <f aca="false">SUM(B4:B5)</f>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
+        <f aca="false">QUOTIENT(B6,4)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUM(D4:D5)</f>
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">QUOTIENT(D6,10.5)</f>
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="28"/>
+      <c r="F6" s="25" t="n">
+        <f aca="false">SUM(C6,E6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="25"/>
       <c r="I6" s="3"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="3"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="I7" s="3"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="3"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">SUM(B4:B7)</f>
-        <v>52</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">QUOTIENT(B8,4)</f>
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">SUM(D4:D7)</f>
-        <v>65</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">QUOTIENT(D8,10.5)</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="30" t="n">
-        <f aca="false">SUM(C8,E8)</f>
-        <v>19</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="I8" s="3"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="3"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-    </row>
     <row r="29" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="15">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G2"/>
@@ -2436,10 +2369,6 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2477,16 +2406,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -2603,8 +2532,8 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -2613,92 +2542,92 @@
       <c r="A28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -2766,14 +2695,14 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.53441295546559"/>
@@ -2805,23 +2734,23 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="34"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -2829,7 +2758,7 @@
       <c r="C4" s="0"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="34"/>
+      <c r="K4" s="32"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
     </row>
@@ -2841,7 +2770,7 @@
       <c r="G5" s="27"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="34"/>
+      <c r="K5" s="32"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
     </row>
@@ -2853,7 +2782,7 @@
       <c r="G6" s="27"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="32"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
     </row>
@@ -2865,7 +2794,7 @@
       <c r="G7" s="27"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="32"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
     </row>
@@ -2877,7 +2806,7 @@
       <c r="G8" s="27"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="34"/>
+      <c r="K8" s="32"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
     </row>
@@ -2889,7 +2818,7 @@
       <c r="G9" s="27"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="32"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
     </row>
@@ -2901,7 +2830,7 @@
       <c r="G10" s="27"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="32"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
     </row>
@@ -2913,7 +2842,7 @@
       <c r="G11" s="27"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="32"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
     </row>
@@ -2925,7 +2854,7 @@
       <c r="G12" s="27"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="34"/>
+      <c r="K12" s="32"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
     </row>
@@ -2937,7 +2866,7 @@
       <c r="G13" s="27"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="34"/>
+      <c r="K13" s="32"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
     </row>
@@ -2949,7 +2878,7 @@
       <c r="G14" s="27"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="32"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
     </row>
@@ -2961,7 +2890,7 @@
       <c r="G15" s="27"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="34"/>
+      <c r="K15" s="32"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
     </row>
@@ -2973,7 +2902,7 @@
       <c r="G16" s="27"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="32"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
     </row>
@@ -2985,7 +2914,7 @@
       <c r="G17" s="27"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="34"/>
+      <c r="K17" s="32"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
     </row>
@@ -2997,7 +2926,7 @@
       <c r="G18" s="27"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="32"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
     </row>
@@ -3009,7 +2938,7 @@
       <c r="G19" s="27"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="34"/>
+      <c r="K19" s="32"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
     </row>
@@ -3021,7 +2950,7 @@
       <c r="G20" s="27"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="34"/>
+      <c r="K20" s="32"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
     </row>
@@ -3033,7 +2962,7 @@
       <c r="G21" s="27"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="34"/>
+      <c r="K21" s="32"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
     </row>
@@ -3041,13 +2970,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="0"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="34"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="K22" s="32"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
       <c r="Q22" s="3"/>
       <c r="S22" s="3"/>
     </row>
@@ -3055,8 +2984,8 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="0"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
       <c r="M23" s="3"/>
@@ -3076,13 +3005,13 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -3264,44 +3193,44 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="36" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="27"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="36" width="18.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="27"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="18.5748987854251"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="36" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="34" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="n">
+      <c r="A2" s="35" t="n">
         <v>3254165</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="37" t="n">
-        <v>4</v>
+      <c r="C2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3238,10 @@
         <v>1234567</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>4</v>
@@ -3323,10 +3252,10 @@
         <v>5345232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>4</v>
@@ -3337,13 +3266,13 @@
         <v>4885738</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>-1</v>
